--- a/pines_galaga.xlsx
+++ b/pines_galaga.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\V Semestre\ELECTRONICA DIGITAL 2\proyecto_galaga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicou\OneDrive\Documents\2022\1er_semestre\Digital_2\Proyecto_Videojuego\proyecto3_galaga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A338984E-5E7B-4F2B-9052-29657426EB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D47791-C583-4519-BAAB-6D4F6122F095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5D4354C3-10FC-499F-B270-F67036538F17}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5D4354C3-10FC-499F-B270-F67036538F17}"/>
   </bookViews>
   <sheets>
     <sheet name="TIVA C" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Pin de la tiva</t>
   </si>
@@ -186,6 +186,21 @@
   </si>
   <si>
     <t>SHOOT</t>
+  </si>
+  <si>
+    <t>Pin de la ESP</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC7</t>
   </si>
 </sst>
 </file>
@@ -250,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,10 +274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA4A85-44BD-47C6-B15A-C42E42811DCF}">
   <dimension ref="I1:N20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,43 +794,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="J1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="14"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="2"/>
@@ -917,80 +928,102 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="12"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="L14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="L15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="L16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="2"/>
@@ -999,10 +1032,10 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K18" s="2"/>
@@ -1027,10 +1060,11 @@
       <c r="N20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1043,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206F946C-B3FD-4D1F-AFB2-28210451044E}">
   <dimension ref="I1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -1053,10 +1087,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I2" s="1" t="s">
@@ -1091,10 +1125,10 @@
       </c>
     </row>
     <row r="6" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>49</v>
       </c>
     </row>
